--- a/in-progress/scope.xlsx
+++ b/in-progress/scope.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mansoorsm/Crypto/Solana-Workspace/agave-monitor/in-progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03A35EF-9601-3E44-A245-06B0CDCCE932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD61A29-3D8A-A149-A835-B543B015FE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="2100" windowWidth="26840" windowHeight="15940" xr2:uid="{1BB9B45F-63AE-D04A-A98D-4DF3C6638502}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$487</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="448">
   <si>
     <t>Available packages:</t>
   </si>
@@ -1376,6 +1379,14 @@
     <t>thread 'main' panicked at src/cargo/core/resolver/features.rs:325:13:
 did not find features for (PackageId { name: "solana-define-syscall", version: "2.2.1", source: "registry `crates-io`" }, NormalOrDev) within activated_features:
 [</t>
+  </si>
+  <si>
+    <t>thread 'main' panicked at src/cargo/core/resolver/features.rs:325:13:
+did not find features for (PackageId { name: "solana-keypair", version: "2.2.1", source: "registry `crates-io`" }, NormalOrDev) within activated_features:
+[</t>
+  </si>
+  <si>
+    <t>isolate</t>
   </si>
 </sst>
 </file>
@@ -1417,10 +1428,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1757,20 +1767,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE50C83-2ABF-6846-B9C8-BBEE71191BD3}">
   <dimension ref="A1:C487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="H291" sqref="H291"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K290" sqref="K290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3290,7 +3302,7 @@
       <c r="B294" t="s">
         <v>443</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C294" t="s">
         <v>444</v>
       </c>
     </row>
@@ -3333,7 +3345,7 @@
       <c r="B299" t="s">
         <v>443</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C299" t="s">
         <v>445</v>
       </c>
     </row>
@@ -3349,178 +3361,256 @@
       <c r="A301" s="1" t="s">
         <v>271</v>
       </c>
+      <c r="B301" t="s">
+        <v>443</v>
+      </c>
+      <c r="C301" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="B302" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="B303" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B304" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B305" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B306" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B307" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B308" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B309" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B310" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B311" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B312" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B313" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B314" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B315" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B316" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B317" t="s">
+        <v>443</v>
+      </c>
+      <c r="C317" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B318" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B319" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B320" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B321" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B322" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B323" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B324" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>306</v>
       </c>
@@ -4281,6 +4371,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B487" xr:uid="{8FE50C83-2ABF-6846-B9C8-BBEE71191BD3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/in-progress/scope.xlsx
+++ b/in-progress/scope.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mansoorsm/Crypto/Solana-Workspace/agave-monitor/in-progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD61A29-3D8A-A149-A835-B543B015FE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A97243-8D2A-F343-B4AB-9D61A9939D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="2100" windowWidth="26840" windowHeight="15940" xr2:uid="{1BB9B45F-63AE-D04A-A98D-4DF3C6638502}"/>
+    <workbookView xWindow="880" yWindow="1320" windowWidth="26840" windowHeight="17880" activeTab="2" xr2:uid="{1BB9B45F-63AE-D04A-A98D-4DF3C6638502}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="agave-repos" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'agave-repos'!$A$1:$B$149</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$487</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="580">
   <si>
     <t>Available packages:</t>
   </si>
@@ -1387,6 +1390,402 @@
   </si>
   <si>
     <t>isolate</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>net-shaper</t>
+  </si>
+  <si>
+    <t>net-utils</t>
+  </si>
+  <si>
+    <t>notifier</t>
+  </si>
+  <si>
+    <t>perf</t>
+  </si>
+  <si>
+    <t>platform-tools-sdk</t>
+  </si>
+  <si>
+    <t>poh</t>
+  </si>
+  <si>
+    <t>account-decoder</t>
+  </si>
+  <si>
+    <t>poh-bench</t>
+  </si>
+  <si>
+    <t>account-decoder-client-types</t>
+  </si>
+  <si>
+    <t>poseidon</t>
+  </si>
+  <si>
+    <t>accounts-bench</t>
+  </si>
+  <si>
+    <t>program-runtime</t>
+  </si>
+  <si>
+    <t>accounts-cluster-bench</t>
+  </si>
+  <si>
+    <t>program-test</t>
+  </si>
+  <si>
+    <t>accounts-db</t>
+  </si>
+  <si>
+    <t>programs</t>
+  </si>
+  <si>
+    <t>banking-bench</t>
+  </si>
+  <si>
+    <t>pubsub-client</t>
+  </si>
+  <si>
+    <t>banking-stage-ingress-types</t>
+  </si>
+  <si>
+    <t>quic-client</t>
+  </si>
+  <si>
+    <t>banks-client</t>
+  </si>
+  <si>
+    <t>rayon-threadlimit</t>
+  </si>
+  <si>
+    <t>banks-interface</t>
+  </si>
+  <si>
+    <t>rbpf-cli</t>
+  </si>
+  <si>
+    <t>banks-server</t>
+  </si>
+  <si>
+    <t>remote-wallet</t>
+  </si>
+  <si>
+    <t>bench-streamer</t>
+  </si>
+  <si>
+    <t>rpc</t>
+  </si>
+  <si>
+    <t>bench-tps</t>
+  </si>
+  <si>
+    <t>rpc-client</t>
+  </si>
+  <si>
+    <t>bench-vote</t>
+  </si>
+  <si>
+    <t>rpc-client-api</t>
+  </si>
+  <si>
+    <t>bloom</t>
+  </si>
+  <si>
+    <t>rpc-client-nonce-utils</t>
+  </si>
+  <si>
+    <t>bucket_map</t>
+  </si>
+  <si>
+    <t>rpc-test</t>
+  </si>
+  <si>
+    <t>builtins</t>
+  </si>
+  <si>
+    <t>builtins-default-costs</t>
+  </si>
+  <si>
+    <t>runtime</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>runtime-transaction</t>
+  </si>
+  <si>
+    <t>cargo-build-sbf</t>
+  </si>
+  <si>
+    <t>cargo-registry</t>
+  </si>
+  <si>
+    <t>cargo-test-sbf</t>
+  </si>
+  <si>
+    <t>scripts</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>sdk</t>
+  </si>
+  <si>
+    <t>ci</t>
+  </si>
+  <si>
+    <t>send-transaction-service</t>
+  </si>
+  <si>
+    <t>clap-utils</t>
+  </si>
+  <si>
+    <t>stake-accounts</t>
+  </si>
+  <si>
+    <t>clap-v3-utils</t>
+  </si>
+  <si>
+    <t>storage-bigtable</t>
+  </si>
+  <si>
+    <t>cli</t>
+  </si>
+  <si>
+    <t>storage-proto</t>
+  </si>
+  <si>
+    <t>cli-config</t>
+  </si>
+  <si>
+    <t>streamer</t>
+  </si>
+  <si>
+    <t>cli-output</t>
+  </si>
+  <si>
+    <t>svm</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>svm-conformance</t>
+  </si>
+  <si>
+    <t>client-test</t>
+  </si>
+  <si>
+    <t>svm-rent-collector</t>
+  </si>
+  <si>
+    <t>compute-budget</t>
+  </si>
+  <si>
+    <t>svm-transaction</t>
+  </si>
+  <si>
+    <t>compute-budget-instruction</t>
+  </si>
+  <si>
+    <t>system-test</t>
+  </si>
+  <si>
+    <t>connection-cache</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>cost-model</t>
+  </si>
+  <si>
+    <t>test-ledger</t>
+  </si>
+  <si>
+    <t>curves</t>
+  </si>
+  <si>
+    <t>test-validator</t>
+  </si>
+  <si>
+    <t>docker-solana</t>
+  </si>
+  <si>
+    <t>thin-client</t>
+  </si>
+  <si>
+    <t>docs</t>
+  </si>
+  <si>
+    <t>thread-manager</t>
+  </si>
+  <si>
+    <t>dos</t>
+  </si>
+  <si>
+    <t>timings</t>
+  </si>
+  <si>
+    <t>download-utils</t>
+  </si>
+  <si>
+    <t>tls-utils</t>
+  </si>
+  <si>
+    <t>entry</t>
+  </si>
+  <si>
+    <t>tokens</t>
+  </si>
+  <si>
+    <t>faucet</t>
+  </si>
+  <si>
+    <t>tps-client</t>
+  </si>
+  <si>
+    <t>fee</t>
+  </si>
+  <si>
+    <t>tpu-client</t>
+  </si>
+  <si>
+    <t>tpu-client-next</t>
+  </si>
+  <si>
+    <t>transaction-dos</t>
+  </si>
+  <si>
+    <t>transaction-metrics-tracker</t>
+  </si>
+  <si>
+    <t>genesis</t>
+  </si>
+  <si>
+    <t>transaction-status</t>
+  </si>
+  <si>
+    <t>genesis-utils</t>
+  </si>
+  <si>
+    <t>transaction-status-client-types</t>
+  </si>
+  <si>
+    <t>geyser-plugin-interface</t>
+  </si>
+  <si>
+    <t>transaction-view</t>
+  </si>
+  <si>
+    <t>geyser-plugin-manager</t>
+  </si>
+  <si>
+    <t>turbine</t>
+  </si>
+  <si>
+    <t>gossip</t>
+  </si>
+  <si>
+    <t>type-overrides</t>
+  </si>
+  <si>
+    <t>inline-spl</t>
+  </si>
+  <si>
+    <t>udp-client</t>
+  </si>
+  <si>
+    <t>install</t>
+  </si>
+  <si>
+    <t>unified-scheduler-logic</t>
+  </si>
+  <si>
+    <t>keygen</t>
+  </si>
+  <si>
+    <t>unified-scheduler-pool</t>
+  </si>
+  <si>
+    <t>lattice-hash</t>
+  </si>
+  <si>
+    <t>upload-perf</t>
+  </si>
+  <si>
+    <t>ledger</t>
+  </si>
+  <si>
+    <t>validator</t>
+  </si>
+  <si>
+    <t>ledger-tool</t>
+  </si>
+  <si>
+    <t>local-cluster</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>log-analyzer</t>
+  </si>
+  <si>
+    <t>vortexor</t>
+  </si>
+  <si>
+    <t>log-collector</t>
+  </si>
+  <si>
+    <t>vote</t>
+  </si>
+  <si>
+    <t>measure</t>
+  </si>
+  <si>
+    <t>watchtower</t>
+  </si>
+  <si>
+    <t>memory-management</t>
+  </si>
+  <si>
+    <t>merkle-root-bench</t>
+  </si>
+  <si>
+    <t>wen-restart</t>
+  </si>
+  <si>
+    <t>merkle-tree</t>
+  </si>
+  <si>
+    <t>zk-keygen</t>
+  </si>
+  <si>
+    <t>metrics</t>
+  </si>
+  <si>
+    <t>zk-sdk</t>
+  </si>
+  <si>
+    <t>multinode-demo</t>
+  </si>
+  <si>
+    <t>zk-token-sdk</t>
+  </si>
+  <si>
+    <t>folder</t>
+  </si>
+  <si>
+    <t>ext</t>
   </si>
 </sst>
 </file>
@@ -1767,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE50C83-2ABF-6846-B9C8-BBEE71191BD3}">
   <dimension ref="A1:C487"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K290" sqref="K290"/>
+    <sheetView topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="L260" sqref="L260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4375,4 +4774,1287 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE3D47E-53FB-C340-A27F-FF18A9BFB07F}">
+  <dimension ref="A1:B141"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>577</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBF38AC-1B16-B542-BF54-0E62A580DD47}">
+  <dimension ref="A1:A116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="92.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>577</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>